--- a/BackTest/2020-01-20 BackTest MIX.xlsx
+++ b/BackTest/2020-01-20 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1903,14 +1903,10 @@
         <v>14147647.01656749</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
@@ -1940,19 +1936,11 @@
         <v>14153193.27046749</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1984,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2023,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2059,19 +2035,11 @@
         <v>14152565.14316749</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2100,19 +2068,11 @@
         <v>14152565.14316749</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2141,19 +2101,11 @@
         <v>14152565.14316749</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2182,19 +2134,11 @@
         <v>14162268.28676749</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2223,19 +2167,11 @@
         <v>14148848.82046749</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3.092</v>
-      </c>
-      <c r="J54" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2264,19 +2200,11 @@
         <v>14100833.04106749</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3.091</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2305,19 +2233,11 @@
         <v>14090833.04106749</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2346,19 +2266,11 @@
         <v>14271592.18266749</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2387,19 +2299,11 @@
         <v>14304707.99496749</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2431,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2470,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2509,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2548,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2584,19 +2464,11 @@
         <v>14256719.58006749</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3.091</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2628,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2667,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2703,19 +2563,11 @@
         <v>14282802.25116749</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3.061</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2747,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2786,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2825,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2864,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2903,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2942,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2981,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3020,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3059,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3098,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3137,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3176,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3215,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3254,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3293,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3332,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3371,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3410,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3449,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3488,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3527,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3566,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3605,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3644,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3683,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3722,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3761,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3800,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3839,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3878,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3917,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3956,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3995,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4034,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4073,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4112,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4151,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4190,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4229,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4268,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4307,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4346,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4385,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4424,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4463,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4502,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4541,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4580,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4619,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4658,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4697,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4736,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4775,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4814,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4853,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4892,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4931,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4970,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5009,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5048,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5087,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5126,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5165,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5204,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5243,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5282,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5321,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5360,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5396,19 +4840,11 @@
         <v>13500390.81196749</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="J135" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5440,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5479,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5518,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5557,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5596,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5635,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5674,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5710,19 +5104,11 @@
         <v>13224266.24416749</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="J143" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5754,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5790,19 +5170,11 @@
         <v>13644124.54292637</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>3.023</v>
-      </c>
-      <c r="J145" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5834,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5870,19 +5236,11 @@
         <v>13176054.15172637</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>3.059</v>
-      </c>
-      <c r="J147" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5914,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5950,19 +5302,11 @@
         <v>13182090.50852636</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>3.014</v>
-      </c>
-      <c r="J149" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5994,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6033,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6072,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6111,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6150,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6189,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6228,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6267,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6306,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6345,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6384,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6423,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6462,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6501,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6540,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6579,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6618,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6657,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6696,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6735,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6774,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6813,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6852,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6891,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6930,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6969,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7008,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7047,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7086,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7122,19 +6292,11 @@
         <v>14581402.23786749</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>3.085</v>
-      </c>
-      <c r="J179" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7163,19 +6325,11 @@
         <v>14581402.23786749</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="J180" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7204,19 +6358,11 @@
         <v>14581402.23786749</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="J181" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7248,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7287,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7326,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7362,19 +6490,11 @@
         <v>15306727.97346749</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="J185" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7403,19 +6523,11 @@
         <v>15306727.97346749</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>3.056</v>
-      </c>
-      <c r="J186" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7444,19 +6556,11 @@
         <v>15177494.16576749</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>3.056</v>
-      </c>
-      <c r="J187" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7485,19 +6589,11 @@
         <v>15632223.78186749</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J188" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7526,19 +6622,11 @@
         <v>15632549.51476651</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>3.054</v>
-      </c>
-      <c r="J189" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7567,19 +6655,11 @@
         <v>15732549.51476651</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="J190" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7608,19 +6688,11 @@
         <v>15469095.48216651</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>3.079</v>
-      </c>
-      <c r="J191" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7649,19 +6721,11 @@
         <v>15469095.48216651</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J192" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7690,19 +6754,11 @@
         <v>15469095.48216651</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J193" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7731,19 +6787,11 @@
         <v>15346343.44426651</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J194" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7772,19 +6820,11 @@
         <v>15423462.67896651</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>3.046</v>
-      </c>
-      <c r="J195" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7813,19 +6853,11 @@
         <v>15460256.88696651</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>3.088</v>
-      </c>
-      <c r="J196" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7854,19 +6886,11 @@
         <v>15460256.88696651</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>3.089</v>
-      </c>
-      <c r="J197" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7898,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7937,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7976,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8012,19 +7018,11 @@
         <v>15460149.38696651</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>3.078</v>
-      </c>
-      <c r="J201" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8056,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8092,19 +7084,11 @@
         <v>15277240.60906651</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>3.087</v>
-      </c>
-      <c r="J203" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8133,19 +7117,11 @@
         <v>15277740.60906651</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>3.046</v>
-      </c>
-      <c r="J204" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8174,19 +7150,11 @@
         <v>15219740.60906651</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="J205" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8215,19 +7183,11 @@
         <v>16416914.83196651</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>3.079</v>
-      </c>
-      <c r="J206" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8256,19 +7216,11 @@
         <v>16417414.83196651</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>3.089</v>
-      </c>
-      <c r="J207" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8297,19 +7249,11 @@
         <v>16417414.83196651</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>3.095</v>
-      </c>
-      <c r="J208" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8341,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8380,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8419,14 +7351,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8458,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8497,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8536,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8575,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8614,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8653,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8692,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8728,19 +7612,11 @@
         <v>17172645.23177652</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>3.077</v>
-      </c>
-      <c r="J219" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8769,19 +7645,11 @@
         <v>17197303.99577652</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>3.079</v>
-      </c>
-      <c r="J220" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8810,19 +7678,11 @@
         <v>17200810.28937652</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>3.082</v>
-      </c>
-      <c r="J221" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8851,19 +7711,11 @@
         <v>17165785.88977652</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>3.083</v>
-      </c>
-      <c r="J222" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8892,19 +7744,11 @@
         <v>17165785.88977652</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>3.073</v>
-      </c>
-      <c r="J223" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8936,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8975,14 +7813,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9014,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9050,19 +7876,11 @@
         <v>17084547.43957652</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="J227" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9091,19 +7909,11 @@
         <v>17071257.43957652</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="J228" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9135,14 +7945,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9174,14 +7978,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9213,14 +8011,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9252,14 +8044,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9291,14 +8077,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9330,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9366,19 +8140,11 @@
         <v>16524063.10598187</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>3.054</v>
-      </c>
-      <c r="J235" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9407,19 +8173,11 @@
         <v>16497047.37578187</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>3.054</v>
-      </c>
-      <c r="J236" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9448,19 +8206,11 @@
         <v>16497047.37578187</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J237" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9489,19 +8239,11 @@
         <v>16497716.86179358</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J238" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9530,19 +8272,11 @@
         <v>16497716.86179358</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>3.074</v>
-      </c>
-      <c r="J239" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9571,19 +8305,11 @@
         <v>16498586.34779358</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>3.074</v>
-      </c>
-      <c r="J240" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9612,19 +8338,11 @@
         <v>16498586.34779358</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="J241" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9653,19 +8371,11 @@
         <v>16427601.80499358</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="J242" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9694,19 +8404,11 @@
         <v>16427601.80499358</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="J243" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9735,19 +8437,11 @@
         <v>16427601.80499358</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="J244" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9776,19 +8470,11 @@
         <v>16487601.80499358</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="J245" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9817,19 +8503,11 @@
         <v>16487601.80499358</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>3.074</v>
-      </c>
-      <c r="J246" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9858,19 +8536,11 @@
         <v>16487601.80499358</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>3.074</v>
-      </c>
-      <c r="J247" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9899,19 +8569,11 @@
         <v>16616272.33109893</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>3.074</v>
-      </c>
-      <c r="J248" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9943,14 +8605,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9982,14 +8638,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10021,14 +8671,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10060,14 +8704,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10099,14 +8737,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10138,14 +8770,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10177,14 +8803,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10213,19 +8833,13 @@
         <v>17120256.65499893</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
-        <v>1.001472491909385</v>
+        <v>1</v>
       </c>
       <c r="M256" t="inlineStr"/>
     </row>
@@ -10285,7 +8899,7 @@
         <v>17102704.94519893</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10318,7 +8932,7 @@
         <v>17101704.94519893</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10351,7 +8965,7 @@
         <v>17101704.94519893</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10384,7 +8998,7 @@
         <v>17065178.90429893</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10417,7 +9031,7 @@
         <v>16898791.32679893</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10450,7 +9064,7 @@
         <v>16913591.88249893</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10483,7 +9097,7 @@
         <v>16903363.24529893</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10747,14 +9361,10 @@
         <v>17214899.37049893</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>3.098</v>
-      </c>
-      <c r="J272" t="n">
-        <v>3.098</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
@@ -10787,14 +9397,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>3.098</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10823,17 +9427,11 @@
         <v>17783050.27169893</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>3.098</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10862,7 +9460,7 @@
         <v>17783050.27169893</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10895,7 +9493,7 @@
         <v>17783003.30289892</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10928,7 +9526,7 @@
         <v>17207433.33739892</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10961,7 +9559,7 @@
         <v>17207433.33739892</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10994,7 +9592,7 @@
         <v>17207343.03299892</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11029,15 +9627,9 @@
       <c r="H280" t="n">
         <v>2</v>
       </c>
-      <c r="I280" t="n">
-        <v>3.108</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11068,15 +9660,9 @@
       <c r="H281" t="n">
         <v>2</v>
       </c>
-      <c r="I281" t="n">
-        <v>3.098</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11107,15 +9693,9 @@
       <c r="H282" t="n">
         <v>2</v>
       </c>
-      <c r="I282" t="n">
-        <v>3.085</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11146,15 +9726,9 @@
       <c r="H283" t="n">
         <v>2</v>
       </c>
-      <c r="I283" t="n">
-        <v>3.074</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11185,15 +9759,9 @@
       <c r="H284" t="n">
         <v>2</v>
       </c>
-      <c r="I284" t="n">
-        <v>3.073</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11224,15 +9792,9 @@
       <c r="H285" t="n">
         <v>2</v>
       </c>
-      <c r="I285" t="n">
-        <v>3.104</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11263,15 +9825,9 @@
       <c r="H286" t="n">
         <v>2</v>
       </c>
-      <c r="I286" t="n">
-        <v>3.103</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11302,15 +9858,9 @@
       <c r="H287" t="n">
         <v>2</v>
       </c>
-      <c r="I287" t="n">
-        <v>3.104</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11341,15 +9891,9 @@
       <c r="H288" t="n">
         <v>2</v>
       </c>
-      <c r="I288" t="n">
-        <v>3.104</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11380,15 +9924,9 @@
       <c r="H289" t="n">
         <v>2</v>
       </c>
-      <c r="I289" t="n">
-        <v>3.104</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11419,15 +9957,9 @@
       <c r="H290" t="n">
         <v>2</v>
       </c>
-      <c r="I290" t="n">
-        <v>3.113</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11458,15 +9990,9 @@
       <c r="H291" t="n">
         <v>2</v>
       </c>
-      <c r="I291" t="n">
-        <v>3.114</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11495,16 +10021,14 @@
         <v>16492485.09509892</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
       <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
@@ -11532,12 +10056,8 @@
       <c r="H293" t="n">
         <v>2</v>
       </c>
-      <c r="I293" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="J293" t="n">
-        <v>3.116</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
@@ -11569,17 +10089,9 @@
       <c r="H294" t="n">
         <v>2</v>
       </c>
-      <c r="I294" t="n">
-        <v>3.115</v>
-      </c>
-      <c r="J294" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11610,17 +10122,9 @@
       <c r="H295" t="n">
         <v>2</v>
       </c>
-      <c r="I295" t="n">
-        <v>3.115</v>
-      </c>
-      <c r="J295" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11651,12 +10155,8 @@
       <c r="H296" t="n">
         <v>2</v>
       </c>
-      <c r="I296" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="J296" t="n">
-        <v>3.09</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
@@ -11688,17 +10188,9 @@
       <c r="H297" t="n">
         <v>2</v>
       </c>
-      <c r="I297" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="J297" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11729,17 +10221,9 @@
       <c r="H298" t="n">
         <v>2</v>
       </c>
-      <c r="I298" t="n">
-        <v>3.105</v>
-      </c>
-      <c r="J298" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11770,17 +10254,9 @@
       <c r="H299" t="n">
         <v>2</v>
       </c>
-      <c r="I299" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="J299" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11811,17 +10287,9 @@
       <c r="H300" t="n">
         <v>2</v>
       </c>
-      <c r="I300" t="n">
-        <v>3.077</v>
-      </c>
-      <c r="J300" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11852,17 +10320,9 @@
       <c r="H301" t="n">
         <v>2</v>
       </c>
-      <c r="I301" t="n">
-        <v>3.077</v>
-      </c>
-      <c r="J301" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11893,17 +10353,9 @@
       <c r="H302" t="n">
         <v>2</v>
       </c>
-      <c r="I302" t="n">
-        <v>3.077</v>
-      </c>
-      <c r="J302" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11932,17 +10384,11 @@
         <v>16088220.66849892</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11971,17 +10417,11 @@
         <v>16231122.24179892</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12010,17 +10450,11 @@
         <v>16231122.24179892</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12049,17 +10483,11 @@
         <v>16260245.87909892</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12088,17 +10516,11 @@
         <v>16280406.87909892</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12127,17 +10549,11 @@
         <v>16667643.00939892</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12166,17 +10582,11 @@
         <v>16667643.00939892</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12205,19 +10615,13 @@
         <v>16667643.00939892</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
-        <v>1.006326860841424</v>
+        <v>1</v>
       </c>
       <c r="M310" t="inlineStr"/>
     </row>
@@ -12244,7 +10648,7 @@
         <v>16667643.00939892</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12277,7 +10681,7 @@
         <v>16810882.09165541</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12310,7 +10714,7 @@
         <v>16799882.09165541</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12343,7 +10747,7 @@
         <v>16799882.09165541</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12376,7 +10780,7 @@
         <v>16799882.09165541</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12409,7 +10813,7 @@
         <v>16631566.01725541</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12442,7 +10846,7 @@
         <v>16560716.01725541</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12475,7 +10879,7 @@
         <v>16560716.01725541</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12508,7 +10912,7 @@
         <v>16498895.01725541</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12541,7 +10945,7 @@
         <v>16685711.58815541</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12574,7 +10978,7 @@
         <v>17191870.97115542</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12607,7 +11011,7 @@
         <v>16817698.44985542</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12640,7 +11044,7 @@
         <v>16817698.44985542</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12673,7 +11077,7 @@
         <v>16817488.44985542</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12706,7 +11110,7 @@
         <v>16651769.99385542</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12739,7 +11143,7 @@
         <v>15752904.80125542</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12772,7 +11176,7 @@
         <v>15309170.43445542</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12805,7 +11209,7 @@
         <v>15299976.70725542</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12838,7 +11242,7 @@
         <v>15240860.13515542</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12873,15 +11277,9 @@
       <c r="H330" t="n">
         <v>2</v>
       </c>
-      <c r="I330" t="n">
-        <v>3.046</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12910,17 +11308,11 @@
         <v>14253367.01075542</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="n">
-        <v>3.042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12949,17 +11341,11 @@
         <v>14253367.01075542</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
-      </c>
-      <c r="I332" t="n">
-        <v>3.034</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12988,17 +11374,11 @@
         <v>14226607.35825542</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
-      </c>
-      <c r="I333" t="n">
-        <v>3.034</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13027,17 +11407,11 @@
         <v>14210080.28625542</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
-      </c>
-      <c r="I334" t="n">
-        <v>3.031</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13066,17 +11440,11 @@
         <v>14099842.97325542</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
-      </c>
-      <c r="I335" t="n">
-        <v>3.029</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13105,17 +11473,11 @@
         <v>14180863.40865542</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
-      </c>
-      <c r="I336" t="n">
-        <v>3.027</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13144,17 +11506,11 @@
         <v>14144977.58595542</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
-      </c>
-      <c r="I337" t="n">
-        <v>3.029</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13183,17 +11539,11 @@
         <v>12132421.28525542</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
-      </c>
-      <c r="I338" t="n">
-        <v>3.026</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13222,17 +11572,11 @@
         <v>12147421.28525542</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
-      </c>
-      <c r="I339" t="n">
-        <v>3.021</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13265,11 +11609,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13302,11 +11642,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13339,11 +11675,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13376,11 +11708,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13413,11 +11741,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13450,11 +11774,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13487,11 +11807,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13520,17 +11836,11 @@
         <v>12375570.51865542</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
-      </c>
-      <c r="I347" t="n">
-        <v>3.069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13559,17 +11869,11 @@
         <v>12375570.51865542</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
-      </c>
-      <c r="I348" t="n">
-        <v>3.059</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13598,17 +11902,11 @@
         <v>12029947.01065542</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
-      </c>
-      <c r="I349" t="n">
-        <v>3.059</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13637,17 +11935,11 @@
         <v>11429947.01065542</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="n">
-        <v>3.027</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13676,17 +11968,11 @@
         <v>11429947.01065542</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="n">
-        <v>3.023</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13715,17 +12001,11 @@
         <v>11336866.04475542</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="n">
-        <v>3.023</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13754,17 +12034,11 @@
         <v>11336866.04475542</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="n">
-        <v>3.015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13793,17 +12067,11 @@
         <v>11216329.97095542</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
-      </c>
-      <c r="I354" t="n">
-        <v>3.015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13832,17 +12100,11 @@
         <v>11189154.69195542</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="n">
-        <v>3.012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13871,17 +12133,11 @@
         <v>11175128.99165542</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="n">
-        <v>3.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13910,17 +12166,11 @@
         <v>11255563.35175542</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
-      </c>
-      <c r="I357" t="n">
-        <v>3.007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13949,17 +12199,11 @@
         <v>11255563.35175542</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
-      </c>
-      <c r="I358" t="n">
-        <v>3.036</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13992,11 +12236,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14025,17 +12265,11 @@
         <v>11255763.35175542</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="n">
-        <v>3.036</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14068,11 +12302,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14105,11 +12335,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14142,11 +12368,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14179,11 +12401,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14216,11 +12434,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14253,11 +12467,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14290,11 +12500,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14327,11 +12533,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14364,11 +12566,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14401,11 +12599,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14438,11 +12632,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14475,11 +12665,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14512,11 +12698,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14549,11 +12731,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14586,11 +12764,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14623,11 +12797,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14660,11 +12830,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14697,11 +12863,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14734,11 +12896,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14771,11 +12929,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14808,11 +12962,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14845,11 +12995,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14882,11 +13028,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14919,11 +13061,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14956,11 +13094,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14993,11 +13127,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15030,11 +13160,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15067,11 +13193,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15100,15 +13222,11 @@
         <v>17921930.3071015</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15137,15 +13255,11 @@
         <v>17859377.1127015</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15174,15 +13288,11 @@
         <v>17564902.2570015</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15211,15 +13321,11 @@
         <v>17532392.7729015</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15248,15 +13354,11 @@
         <v>15955750.6798558</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15285,15 +13387,11 @@
         <v>15955750.6798558</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15322,15 +13420,11 @@
         <v>16025858.2704558</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15359,15 +13453,11 @@
         <v>14084851.3248558</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15396,15 +13486,11 @@
         <v>12444725.9402558</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15433,15 +13519,11 @@
         <v>12587356.4795558</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15470,15 +13552,11 @@
         <v>12587356.4795558</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15507,15 +13585,11 @@
         <v>12587356.4795558</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15544,15 +13618,11 @@
         <v>12631311.1783558</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15585,11 +13655,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15622,11 +13688,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15659,11 +13721,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15692,15 +13750,11 @@
         <v>12660561.1340558</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15729,15 +13783,11 @@
         <v>12710561.1340558</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15766,15 +13816,11 @@
         <v>12642563.70988123</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15803,15 +13849,11 @@
         <v>12049376.15228122</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15840,15 +13882,11 @@
         <v>12102281.11558123</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15877,15 +13915,11 @@
         <v>12919843.15518123</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15914,15 +13948,11 @@
         <v>12939843.15518123</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15951,15 +13981,11 @@
         <v>12839569.93208123</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15988,15 +14014,11 @@
         <v>12839569.93208123</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16025,15 +14047,11 @@
         <v>12880555.90118123</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16062,15 +14080,11 @@
         <v>12870555.90118123</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16099,15 +14113,11 @@
         <v>12870555.90118123</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16136,15 +14146,11 @@
         <v>11945570.18648123</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16173,15 +14179,11 @@
         <v>12043323.00918123</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16210,15 +14212,11 @@
         <v>11716058.42398123</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16247,15 +14245,11 @@
         <v>11776479.65928123</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16284,15 +14278,11 @@
         <v>6709749.568081226</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16321,15 +14311,11 @@
         <v>3805858.618465049</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16358,15 +14344,11 @@
         <v>1055725.348865049</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16395,15 +14377,11 @@
         <v>-1520813.178534951</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16432,15 +14410,11 @@
         <v>-1427633.178534951</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16473,11 +14447,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16510,11 +14480,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16547,11 +14513,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16584,11 +14546,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16621,11 +14579,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16658,11 +14612,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16695,11 +14645,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16732,11 +14678,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16769,11 +14711,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16806,11 +14744,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16843,11 +14777,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16880,11 +14810,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16917,11 +14843,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16954,11 +14876,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16991,11 +14909,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17028,11 +14942,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17065,11 +14975,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17102,11 +15008,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17139,11 +15041,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17176,11 +15074,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17209,17 +15103,11 @@
         <v>-4235807.494380123</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
-      </c>
-      <c r="I446" t="n">
-        <v>3.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17252,11 +15140,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17289,11 +15173,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17322,15 +15202,15 @@
         <v>-4453655.717680123</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="J449" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17359,13 +15239,17 @@
         <v>-4453655.717680123</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="J450" t="n">
+        <v>3.09</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L450" t="n">
@@ -17374,6 +15258,6 @@
       <c r="M450" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest MIX.xlsx
+++ b/BackTest/2020-01-20 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>14138641.25256749</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>17101704.94519893</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>17207433.33739892</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>17207433.33739892</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>17207343.03299892</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>17197077.09069892</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>17129957.09069892</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>16493506.70069892</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>16406873.69119892</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>16407073.69119892</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>16397360.75799892</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>16447820.37889892</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>16447820.37889892</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>16447820.37889892</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>16467820.37889892</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>16472771.06389892</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>16472932.06389892</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>16492485.09509892</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>16290282.62649892</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>16290282.62649892</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>16236766.27239892</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>16236766.27239892</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>16242918.86239892</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>16207176.99769892</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>16067276.30729892</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>16067276.30729892</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>16067276.30729892</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>16021460.66849892</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>16088220.66849892</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>16231122.24179892</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>16231122.24179892</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>16260245.87909892</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>16280406.87909892</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>16667643.00939892</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>16667643.00939892</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>16667643.00939892</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>16667643.00939892</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>16810882.09165541</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>16799882.09165541</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>16799882.09165541</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>16799882.09165541</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>16631566.01725541</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>16560716.01725541</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>16560716.01725541</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>16498895.01725541</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>16685711.58815541</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>17191870.97115542</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>16817698.44985542</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>16817698.44985542</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>16817488.44985542</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>16651769.99385542</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>15752904.80125542</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>15309170.43445542</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>15299976.70725542</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>15240860.13515542</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>14441327.31995542</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11473,10 +11473,14 @@
         <v>14180863.40865542</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="J336" t="n">
+        <v>3.027</v>
+      </c>
       <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
@@ -11506,11 +11510,19 @@
         <v>14144977.58595542</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>3.029</v>
+      </c>
+      <c r="J337" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11539,11 +11551,19 @@
         <v>12132421.28525542</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>3.026</v>
+      </c>
+      <c r="J338" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11575,8 +11595,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11608,8 +11634,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11641,8 +11673,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11674,8 +11712,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11707,8 +11751,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11740,8 +11790,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11773,8 +11829,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11806,8 +11868,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11839,8 +11907,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11872,8 +11946,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11905,8 +11985,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11938,8 +12024,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11971,8 +12063,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12004,8 +12102,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12037,8 +12141,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12070,8 +12180,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12103,8 +12219,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12133,11 +12255,19 @@
         <v>11175128.99165542</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="J356" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12166,11 +12296,19 @@
         <v>11255563.35175542</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>3.007</v>
+      </c>
+      <c r="J357" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12199,11 +12337,19 @@
         <v>11255563.35175542</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>3.036</v>
+      </c>
+      <c r="J358" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12235,8 +12381,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12268,8 +12420,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12301,8 +12459,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12334,8 +12498,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12367,8 +12537,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12400,8 +12576,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12433,8 +12615,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12466,8 +12654,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12499,8 +12693,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12532,8 +12732,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12565,8 +12771,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12598,8 +12810,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12631,8 +12849,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12664,8 +12888,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12697,8 +12927,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12730,8 +12966,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12763,8 +13005,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12796,8 +13044,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12829,8 +13083,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12862,8 +13122,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12895,8 +13161,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12928,8 +13200,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12961,8 +13239,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12994,8 +13278,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13027,8 +13317,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13060,8 +13356,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13093,8 +13395,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13126,8 +13434,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13159,8 +13473,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13192,8 +13512,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13222,11 +13548,17 @@
         <v>17921930.3071015</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13255,11 +13587,17 @@
         <v>17859377.1127015</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13288,11 +13626,17 @@
         <v>17564902.2570015</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13321,11 +13665,17 @@
         <v>17532392.7729015</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13357,10 +13707,16 @@
         <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L393" t="n">
-        <v>1</v>
+        <v>1.027705649157582</v>
       </c>
       <c r="M393" t="inlineStr"/>
     </row>
@@ -13651,7 +14007,7 @@
         <v>12631311.1783558</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +14040,7 @@
         <v>12796031.5046558</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +14073,7 @@
         <v>12796231.5046558</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +14106,7 @@
         <v>12660561.1340558</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +14139,7 @@
         <v>12710561.1340558</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +14172,7 @@
         <v>12642563.70988123</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +14205,7 @@
         <v>12049376.15228122</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +14238,7 @@
         <v>12102281.11558123</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +14271,7 @@
         <v>12919843.15518123</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +14304,7 @@
         <v>12939843.15518123</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +14337,7 @@
         <v>12839569.93208123</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14370,7 @@
         <v>12839569.93208123</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14403,7 @@
         <v>12880555.90118123</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14113,7 +14469,7 @@
         <v>12870555.90118123</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14502,7 @@
         <v>11945570.18648123</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14535,7 @@
         <v>12043323.00918123</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14568,7 @@
         <v>11716058.42398123</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14601,7 @@
         <v>11776479.65928123</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14634,7 @@
         <v>6709749.568081226</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14667,7 @@
         <v>3805858.618465049</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14700,7 @@
         <v>1055725.348865049</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14733,7 @@
         <v>-1520813.178534951</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14766,7 @@
         <v>-1427633.178534951</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14608,10 +14964,14 @@
         <v>-3956257.312103863</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J431" t="n">
+        <v>3.05</v>
+      </c>
       <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
@@ -14644,8 +15004,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14677,8 +15043,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14872,11 +15244,17 @@
         <v>-3658809.883080122</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>3.073</v>
+      </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +15283,17 @@
         <v>-3658809.883080122</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>3.07</v>
+      </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14938,11 +15322,17 @@
         <v>-4230570.212280123</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>3.07</v>
+      </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14971,11 +15361,17 @@
         <v>-4228656.212280123</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>3.062</v>
+      </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15004,11 +15400,17 @@
         <v>-4235969.494380123</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>3.071</v>
+      </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15037,11 +15439,17 @@
         <v>-4235969.494380123</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>3.07</v>
+      </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15070,11 +15478,17 @@
         <v>-4235807.494380123</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>3.07</v>
+      </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15103,11 +15517,17 @@
         <v>-4235807.494380123</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>3.09</v>
+      </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15140,7 +15560,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15169,11 +15593,17 @@
         <v>-4235807.494380123</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>3.09</v>
+      </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15207,10 +15637,12 @@
       <c r="I449" t="n">
         <v>3.09</v>
       </c>
-      <c r="J449" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15239,17 +15671,13 @@
         <v>-4453655.717680123</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>3.075</v>
-      </c>
-      <c r="J450" t="n">
-        <v>3.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L450" t="n">
@@ -15258,6 +15686,6 @@
       <c r="M450" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest MIX.xlsx
+++ b/BackTest/2020-01-20 BackTest MIX.xlsx
@@ -451,7 +451,7 @@
         <v>14138641.25256749</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -11473,14 +11473,10 @@
         <v>14180863.40865542</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="J336" t="n">
-        <v>3.027</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
@@ -11510,19 +11506,11 @@
         <v>14144977.58595542</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="J337" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11551,19 +11539,11 @@
         <v>12132421.28525542</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>3.026</v>
-      </c>
-      <c r="J338" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11595,14 +11575,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11634,14 +11608,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11673,14 +11641,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11712,14 +11674,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11751,14 +11707,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11790,14 +11740,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11829,14 +11773,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11868,14 +11806,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11907,14 +11839,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11946,14 +11872,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11985,14 +11905,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12024,14 +11938,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12063,14 +11971,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12102,14 +12004,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12141,14 +12037,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12180,14 +12070,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12219,14 +12103,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12255,19 +12133,11 @@
         <v>11175128.99165542</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="J356" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12296,19 +12166,11 @@
         <v>11255563.35175542</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>3.007</v>
-      </c>
-      <c r="J357" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12337,19 +12199,11 @@
         <v>11255563.35175542</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>3.036</v>
-      </c>
-      <c r="J358" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12381,14 +12235,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12420,14 +12268,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12459,14 +12301,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12498,14 +12334,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12537,14 +12367,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12576,14 +12400,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12615,14 +12433,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12654,14 +12466,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12693,14 +12499,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12732,14 +12532,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12771,14 +12565,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12810,14 +12598,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12849,14 +12631,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12888,14 +12664,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12927,14 +12697,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12966,14 +12730,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13005,14 +12763,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13044,14 +12796,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13083,14 +12829,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13122,14 +12862,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13161,14 +12895,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13200,14 +12928,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13239,14 +12961,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13278,14 +12994,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13317,14 +13027,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13356,14 +13060,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13395,14 +13093,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13431,17 +13123,11 @@
         <v>17629939.3461015</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13473,14 +13159,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13512,14 +13192,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13551,14 +13225,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13587,17 +13255,11 @@
         <v>17859377.1127015</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13626,17 +13288,11 @@
         <v>17564902.2570015</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13665,17 +13321,11 @@
         <v>17532392.7729015</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13707,16 +13357,10 @@
         <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
-        <v>1.027705649157582</v>
+        <v>1</v>
       </c>
       <c r="M393" t="inlineStr"/>
     </row>
@@ -13908,7 +13552,7 @@
         <v>12587356.4795558</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13974,7 +13618,7 @@
         <v>12631311.1783558</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14007,7 +13651,7 @@
         <v>12631311.1783558</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14040,7 +13684,7 @@
         <v>12796031.5046558</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14073,7 +13717,7 @@
         <v>12796231.5046558</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14436,7 +14080,7 @@
         <v>12870555.90118123</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14469,7 +14113,7 @@
         <v>12870555.90118123</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14964,14 +14608,10 @@
         <v>-3956257.312103863</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J431" t="n">
-        <v>3.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
@@ -15004,14 +14644,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15043,14 +14677,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15244,327 +14872,305 @@
         <v>-3658809.883080122</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>3.073</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="n">
+        <v>1</v>
+      </c>
+      <c r="M439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="C440" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="D440" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E440" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F440" t="n">
+        <v>7469.1884</v>
+      </c>
+      <c r="G440" t="n">
+        <v>-3658809.883080122</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="n">
+        <v>1</v>
+      </c>
+      <c r="M440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>3.062</v>
+      </c>
+      <c r="C441" t="n">
+        <v>3.062</v>
+      </c>
+      <c r="D441" t="n">
+        <v>3.062</v>
+      </c>
+      <c r="E441" t="n">
+        <v>3.062</v>
+      </c>
+      <c r="F441" t="n">
+        <v>571760.3292</v>
+      </c>
+      <c r="G441" t="n">
+        <v>-4230570.212280123</v>
+      </c>
+      <c r="H441" t="n">
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="J441" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="n">
+        <v>1</v>
+      </c>
+      <c r="M441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="C442" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="D442" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="E442" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="F442" t="n">
+        <v>1914</v>
+      </c>
+      <c r="G442" t="n">
+        <v>-4228656.212280123</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L442" t="n">
+        <v>1</v>
+      </c>
+      <c r="M442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="C443" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="D443" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E443" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F443" t="n">
+        <v>7313.2821</v>
+      </c>
+      <c r="G443" t="n">
+        <v>-4235969.494380123</v>
+      </c>
+      <c r="H443" t="n">
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="J443" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L443" t="n">
+        <v>1</v>
+      </c>
+      <c r="M443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="C444" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="D444" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E444" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F444" t="n">
+        <v>59737.5715</v>
+      </c>
+      <c r="G444" t="n">
+        <v>-4235969.494380123</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="n">
+        <v>1</v>
+      </c>
+      <c r="M444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="C445" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="D445" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E445" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="F445" t="n">
+        <v>162</v>
+      </c>
+      <c r="G445" t="n">
+        <v>-4235807.494380123</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="n">
+        <v>1</v>
+      </c>
+      <c r="M445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="C446" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="D446" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E446" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="F446" t="n">
+        <v>7700.3036</v>
+      </c>
+      <c r="G446" t="n">
+        <v>-4235807.494380123</v>
+      </c>
+      <c r="H446" t="n">
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="J446" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="n">
+        <v>1</v>
+      </c>
+      <c r="M446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="C447" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="D447" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="E447" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="F447" t="n">
+        <v>21314.2821</v>
+      </c>
+      <c r="G447" t="n">
+        <v>-4235807.494380123</v>
+      </c>
+      <c r="H447" t="n">
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="J447" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="K447" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L439" t="n">
-        <v>1</v>
-      </c>
-      <c r="M439" t="inlineStr"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B440" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="C440" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="D440" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="E440" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F440" t="n">
-        <v>7469.1884</v>
-      </c>
-      <c r="G440" t="n">
-        <v>-3658809.883080122</v>
-      </c>
-      <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L440" t="n">
-        <v>1</v>
-      </c>
-      <c r="M440" t="inlineStr"/>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B441" t="n">
-        <v>3.062</v>
-      </c>
-      <c r="C441" t="n">
-        <v>3.062</v>
-      </c>
-      <c r="D441" t="n">
-        <v>3.062</v>
-      </c>
-      <c r="E441" t="n">
-        <v>3.062</v>
-      </c>
-      <c r="F441" t="n">
-        <v>571760.3292</v>
-      </c>
-      <c r="G441" t="n">
-        <v>-4230570.212280123</v>
-      </c>
-      <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L441" t="n">
-        <v>1</v>
-      </c>
-      <c r="M441" t="inlineStr"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B442" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="C442" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="D442" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="E442" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="F442" t="n">
-        <v>1914</v>
-      </c>
-      <c r="G442" t="n">
-        <v>-4228656.212280123</v>
-      </c>
-      <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>3.062</v>
-      </c>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L442" t="n">
-        <v>1</v>
-      </c>
-      <c r="M442" t="inlineStr"/>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B443" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="C443" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="D443" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="E443" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F443" t="n">
-        <v>7313.2821</v>
-      </c>
-      <c r="G443" t="n">
-        <v>-4235969.494380123</v>
-      </c>
-      <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L443" t="n">
-        <v>1</v>
-      </c>
-      <c r="M443" t="inlineStr"/>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B444" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="C444" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="D444" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="E444" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F444" t="n">
-        <v>59737.5715</v>
-      </c>
-      <c r="G444" t="n">
-        <v>-4235969.494380123</v>
-      </c>
-      <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L444" t="n">
-        <v>1</v>
-      </c>
-      <c r="M444" t="inlineStr"/>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B445" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="C445" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="D445" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="E445" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="F445" t="n">
-        <v>162</v>
-      </c>
-      <c r="G445" t="n">
-        <v>-4235807.494380123</v>
-      </c>
-      <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L445" t="n">
-        <v>1</v>
-      </c>
-      <c r="M445" t="inlineStr"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B446" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="C446" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="D446" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="E446" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="F446" t="n">
-        <v>7700.3036</v>
-      </c>
-      <c r="G446" t="n">
-        <v>-4235807.494380123</v>
-      </c>
-      <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L446" t="n">
-        <v>1</v>
-      </c>
-      <c r="M446" t="inlineStr"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B447" t="n">
-        <v>3.099</v>
-      </c>
-      <c r="C447" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="D447" t="n">
-        <v>3.099</v>
-      </c>
-      <c r="E447" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="F447" t="n">
-        <v>21314.2821</v>
-      </c>
-      <c r="G447" t="n">
-        <v>-4235807.494380123</v>
-      </c>
-      <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15598,7 +15204,9 @@
       <c r="I448" t="n">
         <v>3.09</v>
       </c>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>3.09</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15637,7 +15245,9 @@
       <c r="I449" t="n">
         <v>3.09</v>
       </c>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>3.09</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15671,10 +15281,14 @@
         <v>-4453655.717680123</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="J450" t="n">
+        <v>3.09</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
